--- a/Data/aearep-758/candidatepackages.xlsx
+++ b/Data/aearep-758/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,18 +25,12 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
@@ -55,69 +49,51 @@
     <t>tmpdir</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>reg2hdfe</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>pv</t>
   </si>
   <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>levels</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>imbalance</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>extreme</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>nearest</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>mss</t>
   </si>
   <si>
@@ -136,21 +112,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-758</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-758/118642</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-758/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>ESS7e02_2_formats_unicode.do</t>
   </si>
   <si>
@@ -230,12 +197,6 @@
   </si>
   <si>
     <t>Tables_A9_A16_A17.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -279,7 +240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -287,13 +248,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -301,7 +262,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -325,7 +286,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -337,7 +298,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -349,7 +310,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -361,7 +322,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -373,7 +334,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -385,7 +346,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -397,7 +358,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -409,7 +370,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -421,10 +382,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>205</v>
+        <v>369</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.12198346853256226</v>
       </c>
       <c r="D12"/>
     </row>
@@ -433,10 +394,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>212</v>
+        <v>499</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D13"/>
     </row>
@@ -445,10 +406,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>267</v>
+        <v>525</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D14"/>
     </row>
@@ -457,10 +418,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D15"/>
     </row>
@@ -469,10 +430,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>338</v>
+        <v>614</v>
       </c>
       <c r="C16">
-        <v>0.11206896603107452</v>
+        <v>0.20297521352767944</v>
       </c>
       <c r="D16"/>
     </row>
@@ -481,10 +442,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>555</v>
+        <v>706</v>
       </c>
       <c r="C17">
-        <v>0.1840185672044754</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D17"/>
     </row>
@@ -493,10 +454,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>563</v>
+        <v>712</v>
       </c>
       <c r="C18">
-        <v>0.18667109310626984</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D18"/>
     </row>
@@ -505,10 +466,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>565</v>
+        <v>955</v>
       </c>
       <c r="C19">
-        <v>0.18733422458171844</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D19"/>
     </row>
@@ -517,10 +478,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>566</v>
+        <v>988</v>
       </c>
       <c r="C20">
-        <v>0.18766577541828156</v>
+        <v>0.32661157846450806</v>
       </c>
       <c r="D20"/>
     </row>
@@ -529,10 +490,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>694</v>
+        <v>1169</v>
       </c>
       <c r="C21">
-        <v>0.23010610044002533</v>
+        <v>0.3864462673664093</v>
       </c>
       <c r="D21"/>
     </row>
@@ -541,10 +502,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>745</v>
+        <v>1306</v>
       </c>
       <c r="C22">
-        <v>0.24701590836048126</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D22"/>
     </row>
@@ -553,10 +514,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>835</v>
+        <v>1414</v>
       </c>
       <c r="C23">
-        <v>0.27685675024986267</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D23"/>
     </row>
@@ -565,10 +526,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1124</v>
+        <v>1428</v>
       </c>
       <c r="C24">
-        <v>0.37267905473709106</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D24"/>
     </row>
@@ -577,10 +538,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1133</v>
+        <v>1469</v>
       </c>
       <c r="C25">
-        <v>0.37566313147544861</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D25"/>
     </row>
@@ -589,10 +550,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1260</v>
+        <v>1497</v>
       </c>
       <c r="C26">
-        <v>0.41777187585830688</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D26"/>
     </row>
@@ -601,10 +562,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1423</v>
+        <v>2134</v>
       </c>
       <c r="C27">
-        <v>0.47181698679924011</v>
+        <v>0.70545452833175659</v>
       </c>
       <c r="D27"/>
     </row>
@@ -613,108 +574,12 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1444</v>
+        <v>2436</v>
       </c>
       <c r="C28">
-        <v>0.47877985239028931</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1472</v>
-      </c>
-      <c r="C29">
-        <v>0.48806366324424744</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1553</v>
-      </c>
-      <c r="C30">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1660</v>
-      </c>
-      <c r="C31">
-        <v>0.55039787292480469</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1798</v>
-      </c>
-      <c r="C32">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1817</v>
-      </c>
-      <c r="C33">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1859</v>
-      </c>
-      <c r="C34">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2200</v>
-      </c>
-      <c r="C35">
-        <v>0.72944295406341553</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2424</v>
-      </c>
-      <c r="C36">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D36"/>
     </row>
   </sheetData>
 </worksheet>
@@ -722,255 +587,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
